--- a/biology/Médecine/Syndémie/Syndémie.xlsx
+++ b/biology/Médecine/Syndémie/Syndémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Synd%C3%A9mie</t>
+          <t>Syndémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une syndémie caractérise un entrelacement de maladies, de facteurs biologiques et environnementaux qui, par leur synergie, aggravent les conséquences de ces  maladies sur une population[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une syndémie caractérise un entrelacement de maladies, de facteurs biologiques et environnementaux qui, par leur synergie, aggravent les conséquences de ces  maladies sur une population,.
 Le terme a été développé par Merrill Singer (en) dans le milieu des années 1990.
 Le terme de syndémie est souvent utilisé dans la littérature médicale autour des affections liées au VIH ou à la toxicomanie.
-Dans un éditorial du 26 septembre 2020, Richard Horton, rédacteur en chef de la revue scientifique médicale The Lancet, invite à ne plus considérer l’épidémie de Covid-19 comme une pandémie mais plutôt comme une syndémie[3].
-Le concept de syndémie a déjà fait l'objet de, recherches approfondies dans plusieurs domaines, dont le HIV[4].
+Dans un éditorial du 26 septembre 2020, Richard Horton, rédacteur en chef de la revue scientifique médicale The Lancet, invite à ne plus considérer l’épidémie de Covid-19 comme une pandémie mais plutôt comme une syndémie.
+Le concept de syndémie a déjà fait l'objet de, recherches approfondies dans plusieurs domaines, dont le HIV.
 </t>
         </is>
       </c>
